--- a/CONV 1/Configuration.xlsx
+++ b/CONV 1/Configuration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US82783\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git Source\Unitil\mapping\Unitil_BNG_DT-1\CONV 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9712C616-F7D0-4991-BCCE-CF17435E2D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B3D435-1064-4CBB-9DED-FCBD7C6F8D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="7" xr2:uid="{2B5E1605-EB1F-4718-81E0-E76224F23470}"/>
+    <workbookView xWindow="29775" yWindow="4335" windowWidth="26310" windowHeight="19380" xr2:uid="{2B5E1605-EB1F-4718-81E0-E76224F23470}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Abbreviation" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="743">
   <si>
     <t>WLS</t>
   </si>
@@ -2271,6 +2271,9 @@
   <si>
     <t>T_ME_SCISL
 Special Contracts</t>
+  </si>
+  <si>
+    <t>PLACE</t>
   </si>
 </sst>
 </file>
@@ -5343,18 +5346,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD71B2A1-EEEF-4283-9681-98E51B2884B5}">
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.1796875" style="7" customWidth="1"/>
+    <col min="1" max="2" width="19.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>585</v>
       </c>
@@ -5362,7 +5365,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>543</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>542</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>541</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>540</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>539</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>538</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>537</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>536</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>534</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>535</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>533</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>527</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>532</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>531</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>530</v>
       </c>
@@ -5482,7 +5485,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>529</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>528</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>526</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>525</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>522</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>523</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>521</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>520</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>517</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>519</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>518</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>516</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>514</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>511</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>513</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>512</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>507</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>510</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>509</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>508</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>504</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>506</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>505</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>503</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>501</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>502</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>499</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>500</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>498</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>496</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>494</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>488</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>492</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>491</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>490</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>489</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>487</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>485</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>486</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>484</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>483</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>482</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>480</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>479</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>478</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>477</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>476</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>475</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>474</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>473</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>472</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>471</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>470</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>469</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>468</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>467</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>460</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>465</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>464</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>463</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>462</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>461</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>459</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>456</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>457</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>454</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>455</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>452</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>453</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>451</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>449</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>446</v>
       </c>
@@ -6058,7 +6061,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>447</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>445</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>444</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>443</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>442</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>441</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>440</v>
       </c>
@@ -6114,7 +6117,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>439</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>438</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>437</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>436</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>435</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>433</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>432</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>431</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>428</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>430</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>429</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>427</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>425</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>424</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>423</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>422</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>420</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>418</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>416</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>415</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>414</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>413</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>412</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>411</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>409</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>410</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>405</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>408</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>407</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>406</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>404</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>401</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>402</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>400</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>399</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>398</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>397</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>396</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>395</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>394</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>389</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>392</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>391</v>
       </c>
@@ -6466,7 +6469,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>390</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>388</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>387</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>386</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>385</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>384</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>383</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>382</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>381</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>380</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>379</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>378</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>377</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>376</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>375</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>374</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>373</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>372</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>371</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>369</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>368</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>367</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>366</v>
       </c>
@@ -6650,7 +6653,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>365</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>364</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>363</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>361</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>360</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>359</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>358</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>357</v>
       </c>
@@ -6714,7 +6717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>356</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>355</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>354</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>353</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>352</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>351</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>350</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>349</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>348</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>347</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>346</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>344</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>342</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>343</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>341</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>340</v>
       </c>
@@ -6842,7 +6845,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>339</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>338</v>
       </c>
@@ -6858,7 +6861,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>337</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>336</v>
       </c>
@@ -6874,7 +6877,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>335</v>
       </c>
@@ -6882,7 +6885,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>334</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>332</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>331</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>330</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>328</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>327</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>326</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>325</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>323</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>322</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>321</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>319</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>320</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>318</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>316</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>315</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>314</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>313</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>312</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>311</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>310</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>309</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>308</v>
       </c>
@@ -7066,7 +7069,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>307</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>306</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>305</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>304</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>303</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>302</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>301</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>300</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>298</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>299</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>297</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>294</v>
       </c>
@@ -7162,7 +7165,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>296</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>295</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>293</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>292</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>291</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>289</v>
       </c>
@@ -7210,7 +7213,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>290</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>283</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>288</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>287</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>286</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>285</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>284</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>282</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>280</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>281</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>279</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>278</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>277</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>276</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>273</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>275</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>274</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>271</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>272</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>269</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>270</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>267</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>268</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>266</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>265</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
         <v>263</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>264</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
         <v>262</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>261</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>259</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>260</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>258</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>255</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>256</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>253</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>254</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>251</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>252</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>247</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>250</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>249</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>248</v>
       </c>
@@ -7546,7 +7549,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>245</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>246</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>244</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>242</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>243</v>
       </c>
@@ -7586,7 +7589,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
         <v>241</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>240</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>239</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>238</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
         <v>235</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
         <v>237</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
         <v>236</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>234</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
         <v>233</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
         <v>231</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>229</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>228</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
         <v>226</v>
       </c>
@@ -7690,7 +7693,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>224</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
         <v>222</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
         <v>223</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9" t="s">
         <v>221</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
         <v>220</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
         <v>219</v>
       </c>
@@ -7738,7 +7741,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
         <v>218</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
         <v>217</v>
       </c>
@@ -7754,7 +7757,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
         <v>216</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9" t="s">
         <v>215</v>
       </c>
@@ -7770,7 +7773,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
         <v>214</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
         <v>211</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
         <v>212</v>
       </c>
@@ -7794,7 +7797,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
         <v>208</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
         <v>210</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="9" t="s">
         <v>209</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
         <v>206</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
         <v>207</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
         <v>205</v>
       </c>
@@ -7842,7 +7845,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
         <v>201</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>203</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
         <v>202</v>
       </c>
@@ -7866,7 +7869,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>200</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
         <v>199</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>198</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
         <v>194</v>
       </c>
@@ -7898,7 +7901,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>197</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="9" t="s">
         <v>196</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
         <v>195</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
         <v>193</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
         <v>192</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="9" t="s">
         <v>189</v>
       </c>
@@ -7946,7 +7949,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="9" t="s">
         <v>190</v>
       </c>
@@ -7954,7 +7957,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="9" t="s">
         <v>187</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="9" t="s">
         <v>188</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="9" t="s">
         <v>186</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
         <v>184</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="9" t="s">
         <v>183</v>
       </c>
@@ -7994,1387 +7997,1395 @@
         <v>183</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B331" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B331" s="9" t="s">
+    </row>
+    <row r="332" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A332" s="9" t="s">
+      <c r="B332" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A333" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="B334" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A335" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="B335" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A337" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="B337" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B338" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="B339" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A340" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="B340" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="B341" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A342" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="B342" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="B343" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A344" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="B345" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A346" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="B346" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="B347" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A348" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="B348" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B349" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="B350" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A351" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="B351" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B352" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B353" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B355" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A355" s="9" t="s">
+    <row r="356" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B355" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A356" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="B356" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B359" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A360" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="B361" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A362" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="B363" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A364" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B365" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A366" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="B366" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B367" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B368" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="B369" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B370" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="B371" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B372" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B373" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B374" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="B375" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B376" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A377" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="B377" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B379" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A379" s="9" t="s">
+    <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B380" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A380" s="9" t="s">
+    <row r="381" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B381" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A381" s="9" t="s">
+    <row r="382" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B382" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A382" s="9" t="s">
+    <row r="383" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B382" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A383" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="B383" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B384" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A385" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="B385" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="B386" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A387" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="B387" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B389" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A390" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="B390" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B391" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B392" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B393" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A393" s="9" t="s">
+    <row r="394" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B393" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A394" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="B394" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B395" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B396" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B397" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A398" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B399" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B400" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="B401" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="B402" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B403" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B403" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A404" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="B404" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B405" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B406" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B407" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B408" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A409" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="B409" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B410" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B412" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B413" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="B415" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B416" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B417" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B418" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B419" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B420" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="B422" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B423" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A425" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="B425" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B426" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B427" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B429" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A429" s="9" t="s">
+    <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B429" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A430" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="B430" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B431" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B432" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B433" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A434" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="B434" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B435" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B437" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="9" t="s">
+    <row r="438" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B437" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A438" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="B438" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B439" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B440" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="B440" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A441" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="B441" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B442" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B443" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B444" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B446" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A446" s="9" t="s">
+    <row r="447" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="B446" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A447" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="B447" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B448" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B450" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A451" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="B451" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B452" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B453" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A454" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B455" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B456" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B457" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B458" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B459" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B459" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A460" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="B460" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B461" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B463" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A463" s="9" t="s">
+    <row r="464" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B463" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A464" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="B464" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B466" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A466" s="9" t="s">
+    <row r="467" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B466" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A467" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="B467" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B468" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B469" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B470" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A471" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="B471" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B472" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B472" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A473" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="B473" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B474" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B475" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B476" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B476" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A477" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="B477" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B478" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A479" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="B479" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B480" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A481" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="B481" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B482" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B483" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B484" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B485" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B486" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A487" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="B487" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B488" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A489" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="B489" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="B490" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A491" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="B491" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B492" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B493" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B494" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="B495" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A496" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="B496" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B498" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A498" s="9" t="s">
+    <row r="499" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="B498" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A499" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="B499" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B501" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A501" s="9" t="s">
+    <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B502" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A502" s="9" t="s">
+    <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B502" s="10" t="s">
+      <c r="B503" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A503" s="9" t="s">
+    <row r="504" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B503" s="10" t="s">
+      <c r="B504" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9392,13 +9403,13 @@
       <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>544</v>
       </c>
@@ -9406,7 +9417,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>546</v>
       </c>
@@ -9414,7 +9425,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>548</v>
       </c>
@@ -9422,7 +9433,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>550</v>
       </c>
@@ -9430,7 +9441,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>552</v>
       </c>
@@ -9438,7 +9449,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>554</v>
       </c>
@@ -9446,7 +9457,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>556</v>
       </c>
@@ -9454,7 +9465,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>558</v>
       </c>
@@ -9462,7 +9473,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>279</v>
       </c>
@@ -9470,7 +9481,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>560</v>
       </c>
@@ -9478,7 +9489,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>562</v>
       </c>
@@ -9486,7 +9497,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>563</v>
       </c>
@@ -9494,7 +9505,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>565</v>
       </c>
@@ -9502,7 +9513,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>567</v>
       </c>
@@ -9510,7 +9521,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>569</v>
       </c>
@@ -9518,7 +9529,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>570</v>
       </c>
@@ -9526,7 +9537,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>571</v>
       </c>
@@ -9534,7 +9545,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>573</v>
       </c>
@@ -9542,7 +9553,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>574</v>
       </c>
@@ -9550,7 +9561,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>575</v>
       </c>
@@ -9558,7 +9569,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>577</v>
       </c>
@@ -9566,7 +9577,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>579</v>
       </c>
@@ -9574,7 +9585,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -9582,7 +9593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>580</v>
       </c>
@@ -9590,7 +9601,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>581</v>
       </c>
@@ -9598,7 +9609,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>583</v>
       </c>
@@ -9606,7 +9617,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
@@ -9621,7 +9632,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9635,13 +9646,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>586</v>
       </c>
@@ -9649,7 +9660,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>587</v>
       </c>
@@ -9657,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>588</v>
       </c>
@@ -9665,7 +9676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>589</v>
       </c>
@@ -9673,7 +9684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>590</v>
       </c>
@@ -9681,7 +9692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>591</v>
       </c>
@@ -9689,7 +9700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>592</v>
       </c>
@@ -9697,7 +9708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>593</v>
       </c>
@@ -9705,7 +9716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>594</v>
       </c>
@@ -9713,7 +9724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>595</v>
       </c>
@@ -9721,7 +9732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>596</v>
       </c>
@@ -9729,7 +9740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>597</v>
       </c>
@@ -9737,7 +9748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>598</v>
       </c>
@@ -9745,7 +9756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>599</v>
       </c>
@@ -9753,7 +9764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>600</v>
       </c>
@@ -9761,7 +9772,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>680</v>
       </c>
@@ -9782,15 +9793,15 @@
       <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>678</v>
       </c>
@@ -9807,7 +9818,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>603</v>
       </c>
@@ -9818,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>604</v>
       </c>
@@ -9829,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>605</v>
       </c>
@@ -9840,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>606</v>
       </c>
@@ -9857,7 +9868,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>607</v>
       </c>
@@ -9874,7 +9885,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>582</v>
       </c>
@@ -9885,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>608</v>
       </c>
@@ -9902,7 +9913,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>609</v>
       </c>
@@ -9913,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>610</v>
       </c>
@@ -9930,7 +9941,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>611</v>
       </c>
@@ -9941,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>612</v>
       </c>
@@ -9958,7 +9969,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>613</v>
       </c>
@@ -9975,7 +9986,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>614</v>
       </c>
@@ -9992,7 +10003,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>615</v>
       </c>
@@ -10009,7 +10020,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>616</v>
       </c>
@@ -10020,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>617</v>
       </c>
@@ -10037,7 +10048,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>618</v>
       </c>
@@ -10048,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>619</v>
       </c>
@@ -10059,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>620</v>
       </c>
@@ -10070,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>621</v>
       </c>
@@ -10081,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>622</v>
       </c>
@@ -10092,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>623</v>
       </c>
@@ -10103,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>624</v>
       </c>
@@ -10114,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>625</v>
       </c>
@@ -10125,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>626</v>
       </c>
@@ -10136,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>627</v>
       </c>
@@ -10147,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>628</v>
       </c>
@@ -10158,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>629</v>
       </c>
@@ -10169,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>630</v>
       </c>
@@ -10186,7 +10197,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>631</v>
       </c>
@@ -10197,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>632</v>
       </c>
@@ -10208,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>633</v>
       </c>
@@ -10219,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>634</v>
       </c>
@@ -10230,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>635</v>
       </c>
@@ -10241,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>636</v>
       </c>
@@ -10252,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>637</v>
       </c>
@@ -10263,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>638</v>
       </c>
@@ -10274,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>639</v>
       </c>
@@ -10285,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>640</v>
       </c>
@@ -10296,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>641</v>
       </c>
@@ -10307,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>642</v>
       </c>
@@ -10318,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>643</v>
       </c>
@@ -10329,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>644</v>
       </c>
@@ -10340,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>645</v>
       </c>
@@ -10351,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>646</v>
       </c>
@@ -10362,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>647</v>
       </c>
@@ -10373,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>648</v>
       </c>
@@ -10384,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>649</v>
       </c>
@@ -10395,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>650</v>
       </c>
@@ -10406,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>582</v>
       </c>
@@ -10417,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>651</v>
       </c>
@@ -10428,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>652</v>
       </c>
@@ -10439,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>653</v>
       </c>
@@ -10450,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>415</v>
       </c>
@@ -10461,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>654</v>
       </c>
@@ -10478,7 +10489,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>655</v>
       </c>
@@ -10489,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>656</v>
       </c>
@@ -10500,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>657</v>
       </c>
@@ -10511,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>658</v>
       </c>
@@ -10522,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>659</v>
       </c>
@@ -10533,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>660</v>
       </c>
@@ -10544,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>661</v>
       </c>
@@ -10555,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>662</v>
       </c>
@@ -10566,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>663</v>
       </c>
@@ -10577,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>664</v>
       </c>
@@ -10588,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>665</v>
       </c>
@@ -10599,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>666</v>
       </c>
@@ -10610,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>667</v>
       </c>
@@ -10621,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>668</v>
       </c>
@@ -10632,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>669</v>
       </c>
@@ -10643,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>670</v>
       </c>
@@ -10654,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>671</v>
       </c>
@@ -10665,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>672</v>
       </c>
@@ -10682,7 +10693,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>673</v>
       </c>
@@ -10699,7 +10710,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>674</v>
       </c>
@@ -10713,12 +10724,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>582</v>
       </c>
@@ -10736,14 +10747,14 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>688</v>
       </c>
@@ -10754,7 +10765,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>681</v>
       </c>
@@ -10762,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>682</v>
       </c>
@@ -10770,7 +10781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>683</v>
       </c>
@@ -10778,7 +10789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>684</v>
       </c>
@@ -10786,7 +10797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>685</v>
       </c>
@@ -10794,7 +10805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>686</v>
       </c>
@@ -10802,7 +10813,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>582</v>
       </c>
@@ -10826,13 +10837,13 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>709</v>
       </c>
@@ -10840,7 +10851,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>691</v>
       </c>
@@ -10848,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>692</v>
       </c>
@@ -10856,7 +10867,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>693</v>
       </c>
@@ -10864,7 +10875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>694</v>
       </c>
@@ -10872,7 +10883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>695</v>
       </c>
@@ -10880,7 +10891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>696</v>
       </c>
@@ -10888,7 +10899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>697</v>
       </c>
@@ -10896,7 +10907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>698</v>
       </c>
@@ -10904,7 +10915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>699</v>
       </c>
@@ -10912,7 +10923,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>700</v>
       </c>
@@ -10920,7 +10931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>701</v>
       </c>
@@ -10928,7 +10939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>702</v>
       </c>
@@ -10936,7 +10947,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>703</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>704</v>
       </c>
@@ -10952,7 +10963,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>705</v>
       </c>
@@ -10960,7 +10971,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>706</v>
       </c>
@@ -10968,7 +10979,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>707</v>
       </c>
@@ -10976,7 +10987,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>708</v>
       </c>
@@ -10984,7 +10995,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>582</v>
       </c>
@@ -11001,16 +11012,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D971800-1CDC-4009-86E5-4746AE5F05D3}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>715</v>
       </c>
@@ -11024,7 +11035,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>719</v>
       </c>
@@ -11038,7 +11049,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>719</v>
       </c>
@@ -11052,7 +11063,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>719</v>
       </c>
@@ -11066,7 +11077,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>719</v>
       </c>
@@ -11080,7 +11091,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>719</v>
       </c>
@@ -11094,7 +11105,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>719</v>
       </c>
@@ -11108,7 +11119,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>719</v>
       </c>
@@ -11122,7 +11133,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>719</v>
       </c>
@@ -11136,7 +11147,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>719</v>
       </c>
@@ -11150,7 +11161,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>719</v>
       </c>
@@ -11164,7 +11175,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>719</v>
       </c>
@@ -11178,7 +11189,7 @@
         <v>8091</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>719</v>
       </c>
@@ -11192,7 +11203,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>719</v>
       </c>
@@ -11206,7 +11217,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>719</v>
       </c>
@@ -11218,7 +11229,7 @@
       </c>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>735</v>
       </c>
@@ -11232,7 +11243,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>735</v>
       </c>
@@ -11246,7 +11257,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>735</v>
       </c>
@@ -11260,7 +11271,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>735</v>
       </c>
@@ -11274,7 +11285,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>735</v>
       </c>
@@ -11288,7 +11299,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>735</v>
       </c>
@@ -11302,7 +11313,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>735</v>
       </c>
@@ -11316,7 +11327,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>735</v>
       </c>
@@ -11330,7 +11341,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>735</v>
       </c>
@@ -11344,7 +11355,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>735</v>
       </c>
@@ -11358,7 +11369,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>735</v>
       </c>
@@ -11372,7 +11383,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>735</v>
       </c>
@@ -11386,7 +11397,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>735</v>
       </c>
@@ -11400,7 +11411,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>735</v>
       </c>
@@ -11414,7 +11425,7 @@
         <v>8092</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>736</v>
       </c>
@@ -11428,7 +11439,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>736</v>
       </c>
@@ -11442,7 +11453,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>736</v>
       </c>
@@ -11456,7 +11467,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>736</v>
       </c>
@@ -11470,7 +11481,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>736</v>
       </c>
@@ -11484,7 +11495,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>736</v>
       </c>
@@ -11496,7 +11507,7 @@
       </c>
       <c r="D35" s="31"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>736</v>
       </c>
@@ -11510,7 +11521,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>736</v>
       </c>
@@ -11524,7 +11535,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>736</v>
       </c>
@@ -11538,7 +11549,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>736</v>
       </c>
@@ -11552,7 +11563,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>736</v>
       </c>
@@ -11566,7 +11577,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>736</v>
       </c>
@@ -11580,7 +11591,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>736</v>
       </c>
@@ -11594,7 +11605,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>736</v>
       </c>
@@ -11606,7 +11617,7 @@
       </c>
       <c r="D43" s="31"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>737</v>
       </c>
@@ -11620,7 +11631,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>737</v>
       </c>
@@ -11634,7 +11645,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>737</v>
       </c>
@@ -11648,7 +11659,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>737</v>
       </c>
@@ -11662,7 +11673,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>737</v>
       </c>
@@ -11676,7 +11687,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>737</v>
       </c>
@@ -11688,7 +11699,7 @@
       </c>
       <c r="D49" s="31"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>737</v>
       </c>
@@ -11702,7 +11713,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>737</v>
       </c>
@@ -11716,7 +11727,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>737</v>
       </c>
@@ -11730,7 +11741,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>737</v>
       </c>
@@ -11744,7 +11755,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>737</v>
       </c>
@@ -11758,7 +11769,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>737</v>
       </c>
@@ -11772,7 +11783,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>737</v>
       </c>
@@ -11786,7 +11797,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>737</v>
       </c>
@@ -11798,7 +11809,7 @@
       </c>
       <c r="D57" s="31"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>738</v>
       </c>
@@ -11812,7 +11823,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>738</v>
       </c>
@@ -11826,7 +11837,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>738</v>
       </c>
@@ -11840,7 +11851,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>738</v>
       </c>
@@ -11854,7 +11865,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>738</v>
       </c>
@@ -11868,7 +11879,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>738</v>
       </c>
@@ -11880,7 +11891,7 @@
       </c>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>738</v>
       </c>
@@ -11894,7 +11905,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>738</v>
       </c>
@@ -11908,7 +11919,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>738</v>
       </c>
@@ -11922,7 +11933,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>738</v>
       </c>
@@ -11936,7 +11947,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>738</v>
       </c>
@@ -11950,7 +11961,7 @@
         <v>8094</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
         <v>738</v>
       </c>
@@ -11964,7 +11975,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>738</v>
       </c>
@@ -11978,7 +11989,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>738</v>
       </c>
@@ -11990,7 +12001,7 @@
       </c>
       <c r="D71" s="31"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>739</v>
       </c>
@@ -12004,7 +12015,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>739</v>
       </c>
@@ -12018,7 +12029,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>739</v>
       </c>
@@ -12032,7 +12043,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>739</v>
       </c>
@@ -12046,7 +12057,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>739</v>
       </c>
@@ -12060,7 +12071,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>739</v>
       </c>
@@ -12072,7 +12083,7 @@
       </c>
       <c r="D77" s="31"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>739</v>
       </c>
@@ -12086,7 +12097,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>739</v>
       </c>
@@ -12100,7 +12111,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
         <v>739</v>
       </c>
@@ -12114,7 +12125,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>739</v>
       </c>
@@ -12128,7 +12139,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>739</v>
       </c>
@@ -12142,7 +12153,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>739</v>
       </c>
@@ -12156,7 +12167,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>739</v>
       </c>
@@ -12170,7 +12181,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>739</v>
       </c>
@@ -12182,7 +12193,7 @@
       </c>
       <c r="D85" s="31"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>740</v>
       </c>
@@ -12196,7 +12207,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>740</v>
       </c>
@@ -12210,7 +12221,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>740</v>
       </c>
@@ -12224,7 +12235,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>740</v>
       </c>
@@ -12238,7 +12249,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
         <v>740</v>
       </c>
@@ -12252,7 +12263,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>740</v>
       </c>
@@ -12264,7 +12275,7 @@
       </c>
       <c r="D91" s="30"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>740</v>
       </c>
@@ -12278,7 +12289,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>740</v>
       </c>
@@ -12292,7 +12303,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>740</v>
       </c>
@@ -12306,7 +12317,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
         <v>740</v>
       </c>
@@ -12320,7 +12331,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
         <v>740</v>
       </c>
@@ -12334,7 +12345,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
         <v>740</v>
       </c>
@@ -12348,7 +12359,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>740</v>
       </c>
@@ -12362,7 +12373,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
         <v>740</v>
       </c>
@@ -12374,7 +12385,7 @@
       </c>
       <c r="D99" s="30"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
         <v>741</v>
       </c>
@@ -12388,7 +12399,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
         <v>741</v>
       </c>
@@ -12402,7 +12413,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>741</v>
       </c>
@@ -12416,7 +12427,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
         <v>741</v>
       </c>
@@ -12430,7 +12441,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
         <v>741</v>
       </c>
@@ -12444,7 +12455,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
         <v>741</v>
       </c>
@@ -12456,7 +12467,7 @@
       </c>
       <c r="D105" s="30"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
         <v>741</v>
       </c>
@@ -12470,7 +12481,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
         <v>741</v>
       </c>
@@ -12484,7 +12495,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
         <v>741</v>
       </c>
@@ -12498,7 +12509,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
         <v>741</v>
       </c>
@@ -12512,7 +12523,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
         <v>741</v>
       </c>
@@ -12526,7 +12537,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>741</v>
       </c>
@@ -12540,7 +12551,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
         <v>741</v>
       </c>
@@ -12554,7 +12565,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
         <v>741</v>
       </c>
